--- a/Documentation/PilgrimLocations.xlsx
+++ b/Documentation/PilgrimLocations.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D59869D-A997-4E0A-BD59-D75D096AA683}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DCEA8D-12D9-47FE-84FC-4BCCAA688762}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,7 +562,7 @@
   <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
